--- a/results/prop_country.xlsx
+++ b/results/prop_country.xlsx
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>prop</t>
+          <t>prob</t>
         </is>
       </c>
     </row>
